--- a/Code/Results/Cases/Case_3_110/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_110/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.2364411324714</v>
+        <v>19.83137883704572</v>
       </c>
       <c r="C2">
-        <v>23.50552763316573</v>
+        <v>16.59162780564242</v>
       </c>
       <c r="D2">
-        <v>5.628180788993575</v>
+        <v>8.270698166003557</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.67218001240703</v>
+        <v>43.33891852158195</v>
       </c>
       <c r="G2">
-        <v>2.062095973324863</v>
+        <v>3.687374843004999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.44883035122237</v>
+        <v>26.71690974984608</v>
       </c>
       <c r="J2">
-        <v>8.309615771805646</v>
+        <v>11.45821299895334</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.60623673770363</v>
+        <v>18.29411387021722</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.35427394256636</v>
+        <v>19.29741438155595</v>
       </c>
       <c r="C3">
-        <v>21.80621947815638</v>
+        <v>16.05463046955741</v>
       </c>
       <c r="D3">
-        <v>5.395425975254901</v>
+        <v>8.251126499632168</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.81138982228585</v>
+        <v>43.11042071825364</v>
       </c>
       <c r="G3">
-        <v>2.074512849356016</v>
+        <v>3.691650869342743</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.94460469167811</v>
+        <v>26.73216237915074</v>
       </c>
       <c r="J3">
-        <v>8.024252292396316</v>
+        <v>11.44750296177128</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.91676089762235</v>
+        <v>18.37268740377836</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.14222082424484</v>
+        <v>18.96782535898814</v>
       </c>
       <c r="C4">
-        <v>20.71592943687144</v>
+        <v>15.72108088535275</v>
       </c>
       <c r="D4">
-        <v>5.250271128261811</v>
+        <v>8.240326372316895</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.6788310298207</v>
+        <v>42.98379695351787</v>
       </c>
       <c r="G4">
-        <v>2.082278208258252</v>
+        <v>3.694409658262539</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.65881225054327</v>
+        <v>26.74924221709938</v>
       </c>
       <c r="J4">
-        <v>7.852368003506384</v>
+        <v>11.4434749612737</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.10935136911124</v>
+        <v>18.42293891509737</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.63389290060261</v>
+        <v>18.83330107726378</v>
       </c>
       <c r="C5">
-        <v>20.25963759699567</v>
+        <v>15.58442925957142</v>
       </c>
       <c r="D5">
-        <v>5.190620866064422</v>
+        <v>8.236234059598344</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.2201072051507</v>
+        <v>42.93566459788427</v>
       </c>
       <c r="G5">
-        <v>2.08548201994709</v>
+        <v>3.695567543481509</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.54812118985432</v>
+        <v>26.75813204046325</v>
       </c>
       <c r="J5">
-        <v>7.783190246469951</v>
+        <v>11.44247426050655</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.18839865781571</v>
+        <v>18.44392342273065</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.54860933320829</v>
+        <v>18.81095715644442</v>
       </c>
       <c r="C6">
-        <v>20.18314168704413</v>
+        <v>15.56170162558145</v>
       </c>
       <c r="D6">
-        <v>5.180688009944698</v>
+        <v>8.235573264357917</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.14411616720794</v>
+        <v>42.92788244114743</v>
       </c>
       <c r="G6">
-        <v>2.086016493173172</v>
+        <v>3.695761846279689</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.53008325478847</v>
+        <v>26.75972441348352</v>
       </c>
       <c r="J6">
-        <v>7.771756674396291</v>
+        <v>11.44234678649369</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.20156076987159</v>
+        <v>18.44743853846125</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.13542394294318</v>
+        <v>18.96601168448895</v>
       </c>
       <c r="C7">
-        <v>20.70982449748014</v>
+        <v>15.7192405758524</v>
       </c>
       <c r="D7">
-        <v>5.249468587567778</v>
+        <v>8.240269927981185</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.67263271214144</v>
+        <v>42.98313374878636</v>
       </c>
       <c r="G7">
-        <v>2.082321251794437</v>
+        <v>3.694425137453018</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.6572963493068</v>
+        <v>26.74935430991068</v>
       </c>
       <c r="J7">
-        <v>7.851431495112035</v>
+        <v>11.44345887142505</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.11041503836087</v>
+        <v>18.42321986581858</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.59902888041556</v>
+        <v>19.64775736158936</v>
       </c>
       <c r="C8">
-        <v>22.92921125391031</v>
+        <v>16.40740279556255</v>
       </c>
       <c r="D8">
-        <v>5.548427989319136</v>
+        <v>8.263699028764343</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.0286552445942</v>
+        <v>43.25731362428133</v>
       </c>
       <c r="G8">
-        <v>2.066350391429217</v>
+        <v>3.688821636206409</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.26990475907394</v>
+        <v>26.72056182916852</v>
       </c>
       <c r="J8">
-        <v>8.210545770178051</v>
+        <v>11.45399147731927</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.71295583883342</v>
+        <v>18.32079062662631</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.99461418284854</v>
+        <v>20.96171533665574</v>
       </c>
       <c r="C9">
-        <v>26.92036365473192</v>
+        <v>17.71696603346962</v>
       </c>
       <c r="D9">
-        <v>6.114644343384386</v>
+        <v>8.319167200863429</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.72092784901426</v>
+        <v>43.90191877691205</v>
       </c>
       <c r="G9">
-        <v>2.035959306933409</v>
+        <v>3.678884443005274</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.6698274329926</v>
+        <v>26.72572303128672</v>
       </c>
       <c r="J9">
-        <v>8.940539196903142</v>
+        <v>11.49484550141146</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.94484824104789</v>
+        <v>18.13576254258428</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.97796813846537</v>
+        <v>21.90164544615626</v>
       </c>
       <c r="C10">
-        <v>29.65165995999516</v>
+        <v>18.6432465731308</v>
       </c>
       <c r="D10">
-        <v>6.5163503376173</v>
+        <v>8.365536258934659</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.2132376212322</v>
+        <v>44.43822362991209</v>
       </c>
       <c r="G10">
-        <v>2.013887495851136</v>
+        <v>3.672215559901763</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.83394568720447</v>
+        <v>26.76757202218761</v>
       </c>
       <c r="J10">
-        <v>9.492958830069181</v>
+        <v>11.53712734443095</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.38127781365988</v>
+        <v>18.0093477360406</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.28694765665799</v>
+        <v>22.32156813728317</v>
       </c>
       <c r="C11">
-        <v>30.85590013394959</v>
+        <v>19.05477006029029</v>
       </c>
       <c r="D11">
-        <v>6.695830715447432</v>
+        <v>8.387805690493895</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.81527269642901</v>
+        <v>44.69518150318436</v>
       </c>
       <c r="G11">
-        <v>2.003819921036883</v>
+        <v>3.669317031357618</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.39674151533154</v>
+        <v>26.79495321119564</v>
       </c>
       <c r="J11">
-        <v>9.748286796612895</v>
+        <v>11.55900673589544</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.12352023955784</v>
+        <v>17.95387909608164</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.77621261986503</v>
+        <v>22.47932067800799</v>
       </c>
       <c r="C12">
-        <v>31.306956088768</v>
+        <v>19.20903754144646</v>
       </c>
       <c r="D12">
-        <v>6.763332116167405</v>
+        <v>8.396403513988384</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.42438887554373</v>
+        <v>44.79429168241122</v>
       </c>
       <c r="G12">
-        <v>1.999995537727169</v>
+        <v>3.668238725144974</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.61501834565168</v>
+        <v>26.80652585984665</v>
       </c>
       <c r="J12">
-        <v>9.84563165872741</v>
+        <v>11.56766983949256</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.02557123424393</v>
+        <v>17.93316557663008</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.67111708945846</v>
+        <v>22.44540445186305</v>
       </c>
       <c r="C13">
-        <v>31.21002435519414</v>
+        <v>19.17588523539151</v>
       </c>
       <c r="D13">
-        <v>6.748814876776279</v>
+        <v>8.394544555306425</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.29308441722823</v>
+        <v>44.77286725154055</v>
       </c>
       <c r="G13">
-        <v>2.000819865111341</v>
+        <v>3.668470101294528</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.56777222859955</v>
+        <v>26.80397988349624</v>
       </c>
       <c r="J13">
-        <v>9.824635840685957</v>
+        <v>11.56578732483093</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.04668393352922</v>
+        <v>17.93761367914772</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.32732518729505</v>
+        <v>22.33457272576003</v>
       </c>
       <c r="C14">
-        <v>30.89310486115949</v>
+        <v>19.06749396454482</v>
       </c>
       <c r="D14">
-        <v>6.701393312883441</v>
+        <v>8.388509759154248</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.86533186489417</v>
+        <v>44.70329953689802</v>
       </c>
       <c r="G14">
-        <v>2.003505578754422</v>
+        <v>3.669227932356091</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.41459345222511</v>
+        <v>26.79588115132286</v>
       </c>
       <c r="J14">
-        <v>9.756281667310612</v>
+        <v>11.55971189790578</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.11546963477124</v>
+        <v>17.95216915570218</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.11592348261257</v>
+        <v>22.2665160350485</v>
       </c>
       <c r="C15">
-        <v>30.69835356399046</v>
+        <v>19.00089282352434</v>
       </c>
       <c r="D15">
-        <v>6.672286217467434</v>
+        <v>8.384834615089193</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.60366124205402</v>
+        <v>44.66092055697679</v>
       </c>
       <c r="G15">
-        <v>2.005148827875939</v>
+        <v>3.669694635661495</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.3214513580781</v>
+        <v>26.79107733870699</v>
       </c>
       <c r="J15">
-        <v>9.714501308843262</v>
+        <v>11.55603964878206</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.15755387081315</v>
+        <v>17.96112268077487</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.89149578139297</v>
+        <v>21.87403426596839</v>
       </c>
       <c r="C16">
-        <v>29.57223424896522</v>
+        <v>18.61614107059765</v>
       </c>
       <c r="D16">
-        <v>6.504555358606735</v>
+        <v>8.364104205044335</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.10885086599745</v>
+        <v>44.42168700640256</v>
       </c>
       <c r="G16">
-        <v>2.014544226613912</v>
+        <v>3.672407694173269</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.79786513977236</v>
+        <v>26.76595088239695</v>
       </c>
       <c r="J16">
-        <v>9.476359577165708</v>
+        <v>11.53575049708598</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.3980831335935</v>
+        <v>18.01301359758351</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.12835107182562</v>
+        <v>21.63117861581227</v>
       </c>
       <c r="C17">
-        <v>28.87195535160357</v>
+        <v>18.37747327073109</v>
       </c>
       <c r="D17">
-        <v>6.400821968570875</v>
+        <v>8.351685006651271</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.19557165982552</v>
+        <v>44.27820918974993</v>
       </c>
       <c r="G17">
-        <v>2.020295696209082</v>
+        <v>3.674106594328241</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.48542111200705</v>
+        <v>26.7526770584113</v>
       </c>
       <c r="J17">
-        <v>9.331344965040888</v>
+        <v>11.5239795996217</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.54518813241811</v>
+        <v>18.04536769764975</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.68484235791338</v>
+        <v>21.49078261541441</v>
       </c>
       <c r="C18">
-        <v>28.46553711748829</v>
+        <v>18.23927907674908</v>
       </c>
       <c r="D18">
-        <v>6.34084944975023</v>
+        <v>8.344652759942635</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.67149097945797</v>
+        <v>44.19691124081886</v>
       </c>
       <c r="G18">
-        <v>2.023601804208828</v>
+        <v>3.675096488593185</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.30881310865488</v>
+        <v>26.74582750781588</v>
       </c>
       <c r="J18">
-        <v>9.248309165983903</v>
+        <v>11.51745844584337</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.62967789825564</v>
+        <v>18.06416886359289</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.53387911595077</v>
+        <v>21.44312985266441</v>
       </c>
       <c r="C19">
-        <v>28.32729147694375</v>
+        <v>18.19233598909168</v>
       </c>
       <c r="D19">
-        <v>6.320491027339904</v>
+        <v>8.342290942926926</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.49424177704818</v>
+        <v>44.16959766218471</v>
       </c>
       <c r="G19">
-        <v>2.024721081734663</v>
+        <v>3.675433840602337</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.24953897867821</v>
+        <v>26.74364307832272</v>
       </c>
       <c r="J19">
-        <v>9.220256835707177</v>
+        <v>11.51529335731974</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.65826797902155</v>
+        <v>18.07056763742356</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.21005847052057</v>
+        <v>21.65710590789023</v>
       </c>
       <c r="C20">
-        <v>28.94687399135337</v>
+        <v>18.40297610788864</v>
       </c>
       <c r="D20">
-        <v>6.411896438583536</v>
+        <v>8.35299559883644</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.2926630061541</v>
+        <v>44.2933561267274</v>
       </c>
       <c r="G20">
-        <v>2.019683702705739</v>
+        <v>3.673924426789812</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.51835780187242</v>
+        <v>26.75400877993134</v>
       </c>
       <c r="J20">
-        <v>9.346742974927661</v>
+        <v>11.52520686198949</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.52954207677606</v>
+        <v>18.0419036963063</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.42847490667211</v>
+        <v>22.36716219138399</v>
       </c>
       <c r="C21">
-        <v>30.98632178387018</v>
+        <v>19.09937477749746</v>
       </c>
       <c r="D21">
-        <v>6.715334653386051</v>
+        <v>8.390277885039039</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.99090098817533</v>
+        <v>44.72368476771468</v>
       </c>
       <c r="G21">
-        <v>2.002717116943642</v>
+        <v>3.669004816183267</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.45944236846657</v>
+        <v>26.79822724303506</v>
       </c>
       <c r="J21">
-        <v>9.776340303943304</v>
+        <v>11.56148616551176</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.09527609203803</v>
+        <v>17.94788596944499</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.84123171301762</v>
+        <v>22.82379762571452</v>
       </c>
       <c r="C22">
-        <v>32.29060561537439</v>
+        <v>19.54531589277263</v>
       </c>
       <c r="D22">
-        <v>6.910958404986382</v>
+        <v>8.415602932577055</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.7691121211724</v>
+        <v>45.01542340513063</v>
       </c>
       <c r="G22">
-        <v>1.991553672229414</v>
+        <v>3.665902020105689</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.10479841254787</v>
+        <v>26.8341452908099</v>
       </c>
       <c r="J22">
-        <v>10.06100230816561</v>
+        <v>11.58739772530747</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.809388928583276</v>
+        <v>17.88813674024137</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.09042205593259</v>
+        <v>22.58081221815231</v>
       </c>
       <c r="C23">
-        <v>31.59690090116927</v>
+        <v>19.30819601453993</v>
       </c>
       <c r="D23">
-        <v>6.806790927075972</v>
+        <v>8.402000179637756</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.81845949209296</v>
+        <v>44.8587783809395</v>
       </c>
       <c r="G23">
-        <v>1.997521705094416</v>
+        <v>3.667547795803006</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.75744028894951</v>
+        <v>26.81433191692</v>
       </c>
       <c r="J23">
-        <v>9.908681474085455</v>
+        <v>11.57336779807524</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.96221259422372</v>
+        <v>17.9198713727049</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.17313343992467</v>
+        <v>21.64538658080231</v>
       </c>
       <c r="C24">
-        <v>28.91301520739225</v>
+        <v>18.39144931879863</v>
       </c>
       <c r="D24">
-        <v>6.406890713675035</v>
+        <v>8.352402744280855</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.24876500705489</v>
+        <v>44.28650448726857</v>
       </c>
       <c r="G24">
-        <v>2.019960385895944</v>
+        <v>3.674006743690012</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.50345774465975</v>
+        <v>26.7534042739932</v>
       </c>
       <c r="J24">
-        <v>9.339780496522412</v>
+        <v>11.52465124996565</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.53661590609591</v>
+        <v>18.04346914709025</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.85027939332316</v>
+        <v>20.60994421745344</v>
       </c>
       <c r="C25">
-        <v>25.87753614724653</v>
+        <v>17.36822656501196</v>
       </c>
       <c r="D25">
-        <v>5.96387665120406</v>
+        <v>8.303160688117167</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.44427407631605</v>
+        <v>43.71632175105204</v>
       </c>
       <c r="G25">
-        <v>2.044111024453637</v>
+        <v>3.681461093976155</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.26843020479561</v>
+        <v>26.71767416262952</v>
       </c>
       <c r="J25">
-        <v>8.740326488095675</v>
+        <v>11.48163406173726</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.15202813857531</v>
+        <v>18.18413554898981</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_110/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_110/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.83137883704572</v>
+        <v>26.23644113247148</v>
       </c>
       <c r="C2">
-        <v>16.59162780564242</v>
+        <v>23.50552763316566</v>
       </c>
       <c r="D2">
-        <v>8.270698166003557</v>
+        <v>5.628180788993649</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>43.33891852158195</v>
+        <v>39.6721800124071</v>
       </c>
       <c r="G2">
-        <v>3.687374843004999</v>
+        <v>2.062095973324595</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.71690974984608</v>
+        <v>20.44883035122235</v>
       </c>
       <c r="J2">
-        <v>11.45821299895334</v>
+        <v>8.309615771805605</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.29411387021722</v>
+        <v>11.60623673770361</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.29741438155595</v>
+        <v>24.35427394256635</v>
       </c>
       <c r="C3">
-        <v>16.05463046955741</v>
+        <v>21.80621947815641</v>
       </c>
       <c r="D3">
-        <v>8.251126499632168</v>
+        <v>5.395425975254817</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.11042071825364</v>
+        <v>37.8113898222859</v>
       </c>
       <c r="G3">
-        <v>3.691650869342743</v>
+        <v>2.074512849355751</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.73216237915074</v>
+        <v>19.94460469167819</v>
       </c>
       <c r="J3">
-        <v>11.44750296177128</v>
+        <v>8.024252292396246</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.37268740377836</v>
+        <v>11.91676089762235</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.96782535898814</v>
+        <v>23.14222082424487</v>
       </c>
       <c r="C4">
-        <v>15.72108088535275</v>
+        <v>20.71592943687135</v>
       </c>
       <c r="D4">
-        <v>8.240326372316895</v>
+        <v>5.250271128261811</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.98379695351787</v>
+        <v>36.67883102982078</v>
       </c>
       <c r="G4">
-        <v>3.694409658262539</v>
+        <v>2.082278208258387</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.74924221709938</v>
+        <v>19.65881225054324</v>
       </c>
       <c r="J4">
-        <v>11.4434749612737</v>
+        <v>7.852368003506352</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.42293891509737</v>
+        <v>12.10935136911114</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.83330107726378</v>
+        <v>22.63389290060262</v>
       </c>
       <c r="C5">
-        <v>15.58442925957142</v>
+        <v>20.25963759699566</v>
       </c>
       <c r="D5">
-        <v>8.236234059598344</v>
+        <v>5.190620866064409</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.93566459788427</v>
+        <v>36.22010720515071</v>
       </c>
       <c r="G5">
-        <v>3.695567543481509</v>
+        <v>2.085482019946958</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.75813204046325</v>
+        <v>19.54812118985438</v>
       </c>
       <c r="J5">
-        <v>11.44247426050655</v>
+        <v>7.783190246469966</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.44392342273065</v>
+        <v>12.18839865781571</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.81095715644442</v>
+        <v>22.54860933320832</v>
       </c>
       <c r="C6">
-        <v>15.56170162558145</v>
+        <v>20.18314168704416</v>
       </c>
       <c r="D6">
-        <v>8.235573264357917</v>
+        <v>5.180688009944599</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.92788244114743</v>
+        <v>36.14411616720794</v>
       </c>
       <c r="G6">
-        <v>3.695761846279689</v>
+        <v>2.086016493173041</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.75972441348352</v>
+        <v>19.5300832547885</v>
       </c>
       <c r="J6">
-        <v>11.44234678649369</v>
+        <v>7.771756674396276</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.44743853846125</v>
+        <v>12.20156076987156</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96601168448895</v>
+        <v>23.13542394294315</v>
       </c>
       <c r="C7">
-        <v>15.7192405758524</v>
+        <v>20.70982449748003</v>
       </c>
       <c r="D7">
-        <v>8.240269927981185</v>
+        <v>5.249468587567645</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.98313374878636</v>
+        <v>36.67263271214154</v>
       </c>
       <c r="G7">
-        <v>3.694425137453018</v>
+        <v>2.082321251794703</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.74935430991068</v>
+        <v>19.65729634930693</v>
       </c>
       <c r="J7">
-        <v>11.44345887142505</v>
+        <v>7.851431495112039</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.42321986581858</v>
+        <v>12.11041503836097</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.64775736158936</v>
+        <v>25.59902888041553</v>
       </c>
       <c r="C8">
-        <v>16.40740279556255</v>
+        <v>22.92921125391031</v>
       </c>
       <c r="D8">
-        <v>8.263699028764343</v>
+        <v>5.548427989319117</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>43.25731362428133</v>
+        <v>39.02865524459433</v>
       </c>
       <c r="G8">
-        <v>3.688821636206409</v>
+        <v>2.066350391429348</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.72056182916852</v>
+        <v>20.26990475907404</v>
       </c>
       <c r="J8">
-        <v>11.45399147731927</v>
+        <v>8.210545770178051</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.32079062662631</v>
+        <v>11.71295583883345</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.96171533665574</v>
+        <v>29.99461418284856</v>
       </c>
       <c r="C9">
-        <v>17.71696603346962</v>
+        <v>26.92036365473198</v>
       </c>
       <c r="D9">
-        <v>8.319167200863429</v>
+        <v>6.114644343384298</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.90191877691205</v>
+        <v>43.72092784901432</v>
       </c>
       <c r="G9">
-        <v>3.678884443005274</v>
+        <v>2.035959306933539</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.72572303128672</v>
+        <v>21.66982743299268</v>
       </c>
       <c r="J9">
-        <v>11.49484550141146</v>
+        <v>8.940539196903167</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.13576254258428</v>
+        <v>10.94484824104793</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.90164544615626</v>
+        <v>32.97796813846536</v>
       </c>
       <c r="C10">
-        <v>18.6432465731308</v>
+        <v>29.65165995999505</v>
       </c>
       <c r="D10">
-        <v>8.365536258934659</v>
+        <v>6.516350337617324</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.43822362991209</v>
+        <v>47.21323762123218</v>
       </c>
       <c r="G10">
-        <v>3.672215559901763</v>
+        <v>2.013887495851</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.76757202218761</v>
+        <v>22.8339456872045</v>
       </c>
       <c r="J10">
-        <v>11.53712734443095</v>
+        <v>9.492958830069179</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.0093477360406</v>
+        <v>10.38127781365991</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.32156813728317</v>
+        <v>34.28694765665819</v>
       </c>
       <c r="C11">
-        <v>19.05477006029029</v>
+        <v>30.85590013394966</v>
       </c>
       <c r="D11">
-        <v>8.387805690493895</v>
+        <v>6.695830715447425</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.69518150318436</v>
+        <v>48.8152726964291</v>
       </c>
       <c r="G11">
-        <v>3.669317031357618</v>
+        <v>2.00381992103662</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.79495321119564</v>
+        <v>23.39674151533152</v>
       </c>
       <c r="J11">
-        <v>11.55900673589544</v>
+        <v>9.748286796612906</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.95387909608164</v>
+        <v>10.12352023955772</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.47932067800799</v>
+        <v>34.77621261986532</v>
       </c>
       <c r="C12">
-        <v>19.20903754144646</v>
+        <v>31.30695608876805</v>
       </c>
       <c r="D12">
-        <v>8.396403513988384</v>
+        <v>6.763332116167431</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>44.79429168241122</v>
+        <v>49.42438887554394</v>
       </c>
       <c r="G12">
-        <v>3.668238725144974</v>
+        <v>1.999995537727038</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.80652585984665</v>
+        <v>23.61501834565168</v>
       </c>
       <c r="J12">
-        <v>11.56766983949256</v>
+        <v>9.845631658727411</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.93316557663008</v>
+        <v>10.02557123424378</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.44540445186305</v>
+        <v>34.67111708945846</v>
       </c>
       <c r="C13">
-        <v>19.17588523539151</v>
+        <v>31.21002435519418</v>
       </c>
       <c r="D13">
-        <v>8.394544555306425</v>
+        <v>6.748814876776296</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>44.77286725154055</v>
+        <v>49.29308441722829</v>
       </c>
       <c r="G13">
-        <v>3.668470101294528</v>
+        <v>2.000819865111078</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.80397988349624</v>
+        <v>23.56777222859959</v>
       </c>
       <c r="J13">
-        <v>11.56578732483093</v>
+        <v>9.824635840685989</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.93761367914772</v>
+        <v>10.04668393352916</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.33457272576003</v>
+        <v>34.32732518729519</v>
       </c>
       <c r="C14">
-        <v>19.06749396454482</v>
+        <v>30.89310486115961</v>
       </c>
       <c r="D14">
-        <v>8.388509759154248</v>
+        <v>6.701393312883486</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.70329953689802</v>
+        <v>48.86533186489429</v>
       </c>
       <c r="G14">
-        <v>3.669227932356091</v>
+        <v>2.00350557875469</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.79588115132286</v>
+        <v>23.41459345222516</v>
       </c>
       <c r="J14">
-        <v>11.55971189790578</v>
+        <v>9.756281667310605</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.95216915570218</v>
+        <v>10.11546963477118</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.2665160350485</v>
+        <v>34.1159234826126</v>
       </c>
       <c r="C15">
-        <v>19.00089282352434</v>
+        <v>30.69835356399047</v>
       </c>
       <c r="D15">
-        <v>8.384834615089193</v>
+        <v>6.672286217467338</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.66092055697679</v>
+        <v>48.60366124205414</v>
       </c>
       <c r="G15">
-        <v>3.669694635661495</v>
+        <v>2.005148827876067</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.79107733870699</v>
+        <v>23.32145135807823</v>
       </c>
       <c r="J15">
-        <v>11.55603964878206</v>
+        <v>9.714501308843275</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.96112268077487</v>
+        <v>10.15755387081323</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.87403426596839</v>
+        <v>32.89149578139302</v>
       </c>
       <c r="C16">
-        <v>18.61614107059765</v>
+        <v>29.57223424896522</v>
       </c>
       <c r="D16">
-        <v>8.364104205044335</v>
+        <v>6.504555358606752</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.42168700640256</v>
+        <v>47.10885086599755</v>
       </c>
       <c r="G16">
-        <v>3.672407694173269</v>
+        <v>2.01454422661404</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.76595088239695</v>
+        <v>22.79786513977244</v>
       </c>
       <c r="J16">
-        <v>11.53575049708598</v>
+        <v>9.476359577165701</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.01301359758351</v>
+        <v>10.39808313359351</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.63117861581227</v>
+        <v>32.12835107182571</v>
       </c>
       <c r="C17">
-        <v>18.37747327073109</v>
+        <v>28.8719553516035</v>
       </c>
       <c r="D17">
-        <v>8.351685006651271</v>
+        <v>6.400821968570884</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.27820918974993</v>
+        <v>46.19557165982549</v>
       </c>
       <c r="G17">
-        <v>3.674106594328241</v>
+        <v>2.02029569620908</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.7526770584113</v>
+        <v>22.48542111200699</v>
       </c>
       <c r="J17">
-        <v>11.5239795996217</v>
+        <v>9.331344965040888</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.04536769764975</v>
+        <v>10.54518813241805</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.49078261541441</v>
+        <v>31.68484235791339</v>
       </c>
       <c r="C18">
-        <v>18.23927907674908</v>
+        <v>28.46553711748829</v>
       </c>
       <c r="D18">
-        <v>8.344652759942635</v>
+        <v>6.340849449750201</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.19691124081886</v>
+        <v>45.67149097945799</v>
       </c>
       <c r="G18">
-        <v>3.675096488593185</v>
+        <v>2.023601804208826</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.74582750781588</v>
+        <v>22.30881310865488</v>
       </c>
       <c r="J18">
-        <v>11.51745844584337</v>
+        <v>9.248309165983903</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.06416886359289</v>
+        <v>10.62967789825561</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.44312985266441</v>
+        <v>31.53387911595088</v>
       </c>
       <c r="C19">
-        <v>18.19233598909168</v>
+        <v>28.32729147694376</v>
       </c>
       <c r="D19">
-        <v>8.342290942926926</v>
+        <v>6.320491027339916</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.16959766218471</v>
+        <v>45.49424177704824</v>
       </c>
       <c r="G19">
-        <v>3.675433840602337</v>
+        <v>2.024721081734139</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.74364307832272</v>
+        <v>22.2495389786782</v>
       </c>
       <c r="J19">
-        <v>11.51529335731974</v>
+        <v>9.220256835707175</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.07056763742356</v>
+        <v>10.65826797902149</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.65710590789023</v>
+        <v>32.2100584705207</v>
       </c>
       <c r="C20">
-        <v>18.40297610788864</v>
+        <v>28.94687399135357</v>
       </c>
       <c r="D20">
-        <v>8.35299559883644</v>
+        <v>6.411896438583586</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44.2933561267274</v>
+        <v>46.2926630061542</v>
       </c>
       <c r="G20">
-        <v>3.673924426789812</v>
+        <v>2.019683702705746</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.75400877993134</v>
+        <v>22.51835780187242</v>
       </c>
       <c r="J20">
-        <v>11.52520686198949</v>
+        <v>9.346742974927649</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.0419036963063</v>
+        <v>10.52954207677594</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.36716219138399</v>
+        <v>34.42847490667211</v>
       </c>
       <c r="C21">
-        <v>19.09937477749746</v>
+        <v>30.98632178387018</v>
       </c>
       <c r="D21">
-        <v>8.390277885039039</v>
+        <v>6.715334653386075</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.72368476771468</v>
+        <v>48.99090098817543</v>
       </c>
       <c r="G21">
-        <v>3.669004816183267</v>
+        <v>2.002717116943644</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.79822724303506</v>
+        <v>23.4594423684666</v>
       </c>
       <c r="J21">
-        <v>11.56148616551176</v>
+        <v>9.776340303943302</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.94788596944499</v>
+        <v>10.09527609203797</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.82379762571452</v>
+        <v>35.84123171301772</v>
       </c>
       <c r="C22">
-        <v>19.54531589277263</v>
+        <v>32.29060561537441</v>
       </c>
       <c r="D22">
-        <v>8.415602932577055</v>
+        <v>6.910958404986392</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>45.01542340513063</v>
+        <v>50.76911212117242</v>
       </c>
       <c r="G22">
-        <v>3.665902020105689</v>
+        <v>1.991553672229545</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.8341452908099</v>
+        <v>24.10479841254786</v>
       </c>
       <c r="J22">
-        <v>11.58739772530747</v>
+        <v>10.06100230816561</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.88813674024137</v>
+        <v>9.809388928583179</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.58081221815231</v>
+        <v>35.09042205593269</v>
       </c>
       <c r="C23">
-        <v>19.30819601453993</v>
+        <v>31.59690090116927</v>
       </c>
       <c r="D23">
-        <v>8.402000179637756</v>
+        <v>6.80679092707592</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>44.8587783809395</v>
+        <v>49.81845949209296</v>
       </c>
       <c r="G23">
-        <v>3.667547795803006</v>
+        <v>1.997521705094418</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.81433191692</v>
+        <v>23.75744028894948</v>
       </c>
       <c r="J23">
-        <v>11.57336779807524</v>
+        <v>9.908681474085467</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.9198713727049</v>
+        <v>9.962212594223621</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.64538658080231</v>
+        <v>32.1731334399247</v>
       </c>
       <c r="C24">
-        <v>18.39144931879863</v>
+        <v>28.91301520739232</v>
       </c>
       <c r="D24">
-        <v>8.352402744280855</v>
+        <v>6.406890713675037</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.28650448726857</v>
+        <v>46.24876500705496</v>
       </c>
       <c r="G24">
-        <v>3.674006743690012</v>
+        <v>2.019960385896084</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.7534042739932</v>
+        <v>22.50345774465982</v>
       </c>
       <c r="J24">
-        <v>11.52465124996565</v>
+        <v>9.339780496522412</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.04346914709025</v>
+        <v>10.53661590609595</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.60994421745344</v>
+        <v>28.8502793933233</v>
       </c>
       <c r="C25">
-        <v>17.36822656501196</v>
+        <v>25.87753614724651</v>
       </c>
       <c r="D25">
-        <v>8.303160688117167</v>
+        <v>5.963876651203972</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.71632175105204</v>
+        <v>42.44427407631608</v>
       </c>
       <c r="G25">
-        <v>3.681461093976155</v>
+        <v>2.044111024453905</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.71767416262952</v>
+        <v>21.26843020479559</v>
       </c>
       <c r="J25">
-        <v>11.48163406173726</v>
+        <v>8.740326488095649</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.18413554898981</v>
+        <v>11.15202813857529</v>
       </c>
       <c r="O25">
         <v>0</v>
